--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.771188560705</v>
+        <v>361.5019857921786</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.109479874475</v>
+        <v>494.6229653028954</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.4007856548922</v>
+        <v>447.4168437020782</v>
       </c>
       <c r="AD2" t="n">
-        <v>288771.188560705</v>
+        <v>361501.9857921786</v>
       </c>
       <c r="AE2" t="n">
-        <v>395109.479874475</v>
+        <v>494622.9653028954</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5335604434451e-06</v>
+        <v>2.592560019087276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.21180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>357400.7856548922</v>
+        <v>447416.8437020782</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.8340732416802</v>
+        <v>259.8212429185663</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.3677480013319</v>
+        <v>355.4988870654382</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.2280892448094</v>
+        <v>321.5705722297336</v>
       </c>
       <c r="AD3" t="n">
-        <v>207834.0732416802</v>
+        <v>259821.2429185663</v>
       </c>
       <c r="AE3" t="n">
-        <v>284367.7480013319</v>
+        <v>355498.8870654382</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.937415221796832e-06</v>
+        <v>3.27529655963077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.46006944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>257228.0892448094</v>
+        <v>321570.5722297336</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.259536464491</v>
+        <v>234.3319574873944</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.3755385138658</v>
+        <v>320.6233222304487</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.5754871189414</v>
+        <v>290.0234823545288</v>
       </c>
       <c r="AD4" t="n">
-        <v>182259.536464491</v>
+        <v>234331.9574873945</v>
       </c>
       <c r="AE4" t="n">
-        <v>249375.5385138658</v>
+        <v>320623.3222304487</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.074896706277914e-06</v>
+        <v>3.507715830455019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>225575.4871189414</v>
+        <v>290023.4823545288</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.6161965106895</v>
+        <v>234.6886175335929</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.863536523805</v>
+        <v>321.1113202403878</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.0169112837216</v>
+        <v>290.464906519309</v>
       </c>
       <c r="AD5" t="n">
-        <v>182616.1965106894</v>
+        <v>234688.6175335929</v>
       </c>
       <c r="AE5" t="n">
-        <v>249863.5365238049</v>
+        <v>321111.3202403878</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.074686632702307e-06</v>
+        <v>3.507360690652402e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>226016.9112837216</v>
+        <v>290464.906519309</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.4913054519811</v>
+        <v>289.0347125151448</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.6318844442179</v>
+        <v>395.4700449747959</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.7947361745599</v>
+        <v>357.7269389280947</v>
       </c>
       <c r="AD2" t="n">
-        <v>228491.3054519811</v>
+        <v>289034.7125151448</v>
       </c>
       <c r="AE2" t="n">
-        <v>312631.8844442179</v>
+        <v>395470.0449747959</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.77855608954703e-06</v>
+        <v>3.080087442181845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.78819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>282794.7361745599</v>
+        <v>357726.9389280947</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.9061253206626</v>
+        <v>223.3589645399626</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.5777887435094</v>
+        <v>305.6095891854967</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.9991366249091</v>
+        <v>276.4426389194756</v>
       </c>
       <c r="AD3" t="n">
-        <v>172906.1253206626</v>
+        <v>223358.9645399626</v>
       </c>
       <c r="AE3" t="n">
-        <v>236577.7887435094</v>
+        <v>305609.5891854967</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.147103567651709e-06</v>
+        <v>3.7183346505941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>213999.1366249092</v>
+        <v>276442.6389194756</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.8181553436151</v>
+        <v>222.2709945629151</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.089180223066</v>
+        <v>304.1209806650533</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.6525988123812</v>
+        <v>275.0961011069476</v>
       </c>
       <c r="AD4" t="n">
-        <v>171818.1553436151</v>
+        <v>222270.9945629151</v>
       </c>
       <c r="AE4" t="n">
-        <v>235089.180223066</v>
+        <v>304120.9806650533</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161784617686935e-06</v>
+        <v>3.743759161025513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>212652.5988123812</v>
+        <v>275096.1011069476</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.9409749405735</v>
+        <v>201.4325516581291</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.3653215438713</v>
+        <v>275.6089037555213</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.0020347158948</v>
+        <v>249.305176800701</v>
       </c>
       <c r="AD2" t="n">
-        <v>155940.9749405735</v>
+        <v>201432.5516581291</v>
       </c>
       <c r="AE2" t="n">
-        <v>213365.3215438713</v>
+        <v>275608.9037555213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317636550039865e-06</v>
+        <v>4.385467084234638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.09548611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>193002.0347158948</v>
+        <v>249305.176800701</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.8082758343885</v>
+        <v>214.6173787990792</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.920245006289</v>
+        <v>293.6489659232811</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.3131198689178</v>
+        <v>265.6235207545619</v>
       </c>
       <c r="AD2" t="n">
-        <v>157808.2758343885</v>
+        <v>214617.3787990792</v>
       </c>
       <c r="AE2" t="n">
-        <v>215920.245006289</v>
+        <v>293648.9659232812</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.245975815358428e-06</v>
+        <v>4.091680166279304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.965277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>195313.1198689178</v>
+        <v>265623.5207545619</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.870472457605</v>
+        <v>203.3536263524667</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.2688569363239</v>
+        <v>278.2374029041466</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.9147765551027</v>
+        <v>251.6828156797042</v>
       </c>
       <c r="AD3" t="n">
-        <v>155870.472457605</v>
+        <v>203353.6263524667</v>
       </c>
       <c r="AE3" t="n">
-        <v>213268.8569363239</v>
+        <v>278237.4029041466</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.279639805062193e-06</v>
+        <v>4.153008644550003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>192914.7765551027</v>
+        <v>251682.8156797042</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.0182661038133</v>
+        <v>202.7488250516449</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.2616100219472</v>
+        <v>277.4098870824124</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.6717300479901</v>
+        <v>250.9342768065702</v>
       </c>
       <c r="AD2" t="n">
-        <v>150018.2661038133</v>
+        <v>202748.8250516449</v>
       </c>
       <c r="AE2" t="n">
-        <v>205261.6100219472</v>
+        <v>277409.8870824124</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293055607576909e-06</v>
+        <v>4.493650167261588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>185671.73004799</v>
+        <v>250934.2768065702</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.9595558523964</v>
+        <v>308.9285434464755</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.2692035206438</v>
+        <v>422.6896621089215</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.8898269040524</v>
+        <v>382.348754005912</v>
       </c>
       <c r="AD2" t="n">
-        <v>247959.5558523964</v>
+        <v>308928.5434464755</v>
       </c>
       <c r="AE2" t="n">
-        <v>339269.2035206438</v>
+        <v>422689.6621089216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.713499924508804e-06</v>
+        <v>2.94804441880905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.12673611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>306889.8269040524</v>
+        <v>382348.754005912</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.1256917827228</v>
+        <v>229.0042242328025</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.7194298479171</v>
+        <v>313.3336825485169</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.4591895256707</v>
+        <v>283.4295556527647</v>
       </c>
       <c r="AD3" t="n">
-        <v>178125.6917827227</v>
+        <v>229004.2242328025</v>
       </c>
       <c r="AE3" t="n">
-        <v>243719.4298479171</v>
+        <v>313333.6825485169</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.102881691003333e-06</v>
+        <v>3.617968430524003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.878472222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>220459.1895256707</v>
+        <v>283429.5556527647</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.2608687822516</v>
+        <v>225.1394012323313</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.4314085147179</v>
+        <v>308.0456612153177</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.6758495267258</v>
+        <v>278.6462156538198</v>
       </c>
       <c r="AD4" t="n">
-        <v>174260.8687822516</v>
+        <v>225139.4012323313</v>
       </c>
       <c r="AE4" t="n">
-        <v>238431.4085147179</v>
+        <v>308045.6612153177</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.145930965703657e-06</v>
+        <v>3.692033898633344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.678819444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>215675.8495267258</v>
+        <v>278646.2156538198</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.7164170385724</v>
+        <v>198.8038839617293</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.0580715155581</v>
+        <v>272.0122446446747</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.7241081990556</v>
+        <v>246.0517777874497</v>
       </c>
       <c r="AD2" t="n">
-        <v>155716.4170385724</v>
+        <v>198803.8839617293</v>
       </c>
       <c r="AE2" t="n">
-        <v>213058.0715155581</v>
+        <v>272012.2446446747</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.249818181319986e-06</v>
+        <v>4.510121362660243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.05034722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>192724.1081990557</v>
+        <v>246051.7777874497</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.2024846660264</v>
+        <v>250.0026542773437</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.6116747782302</v>
+        <v>342.0646609207963</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.6438237117639</v>
+        <v>309.4184897733844</v>
       </c>
       <c r="AD2" t="n">
-        <v>191202.4846660264</v>
+        <v>250002.6542773437</v>
       </c>
       <c r="AE2" t="n">
-        <v>261611.6747782302</v>
+        <v>342064.6609207963</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004298592556964e-06</v>
+        <v>3.549761740633214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.77256944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>236643.8237117639</v>
+        <v>309418.4897733844</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.7870968633151</v>
+        <v>212.8583555848892</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.1007317050304</v>
+        <v>291.2421927590002</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.7128723985191</v>
+        <v>263.4464466431519</v>
       </c>
       <c r="AD3" t="n">
-        <v>163787.0968633151</v>
+        <v>212858.3555848892</v>
       </c>
       <c r="AE3" t="n">
-        <v>224100.7317050304</v>
+        <v>291242.1927590002</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.225815332889212e-06</v>
+        <v>3.942084347983869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.704861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>202712.8723985191</v>
+        <v>263446.4466431519</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.9541557740538</v>
+        <v>278.796713736418</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.5827355055354</v>
+        <v>381.4619633771131</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.9909796959856</v>
+        <v>345.0557689776288</v>
       </c>
       <c r="AD2" t="n">
-        <v>218954.1557740538</v>
+        <v>278796.7137364181</v>
       </c>
       <c r="AE2" t="n">
-        <v>299582.7355055354</v>
+        <v>381461.9633771131</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.850514509198473e-06</v>
+        <v>3.227135718587541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>270990.9796959856</v>
+        <v>345055.7689776288</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.8123730040404</v>
+        <v>218.823331473168</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.976536220304</v>
+        <v>299.4037359255028</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.9324597811093</v>
+        <v>270.8290635846438</v>
       </c>
       <c r="AD3" t="n">
-        <v>168812.3730040404</v>
+        <v>218823.331473168</v>
       </c>
       <c r="AE3" t="n">
-        <v>230976.536220304</v>
+        <v>299403.7359255028</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.182269376027485e-06</v>
+        <v>3.805687237766324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>208932.4597811094</v>
+        <v>270829.0635846438</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.224022829824</v>
+        <v>219.2349812989515</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.5397736726492</v>
+        <v>299.9669733778481</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.4419426415117</v>
+        <v>271.3385464450461</v>
       </c>
       <c r="AD4" t="n">
-        <v>169224.022829824</v>
+        <v>219234.9812989515</v>
       </c>
       <c r="AE4" t="n">
-        <v>231539.7736726492</v>
+        <v>299966.9733778481</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.181928114592098e-06</v>
+        <v>3.805092107621687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>209441.9426415117</v>
+        <v>271338.5464450461</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.4967197772177</v>
+        <v>338.7733561895916</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.632569004699</v>
+        <v>463.5246515642659</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.8325483839146</v>
+        <v>419.2865093799061</v>
       </c>
       <c r="AD2" t="n">
-        <v>266496.7197772177</v>
+        <v>338773.3561895916</v>
       </c>
       <c r="AE2" t="n">
-        <v>364632.569004699</v>
+        <v>463524.651564266</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599275626694352e-06</v>
+        <v>2.718662571183216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.76909722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>329832.5483839146</v>
+        <v>419286.5093799061</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.5668078331123</v>
+        <v>253.1686831063378</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.7925989770975</v>
+        <v>346.396561239958</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.471340408148</v>
+        <v>313.3369596059469</v>
       </c>
       <c r="AD3" t="n">
-        <v>201566.8078331123</v>
+        <v>253168.6831063378</v>
       </c>
       <c r="AE3" t="n">
-        <v>275792.5989770975</v>
+        <v>346396.561239958</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.987677522233322e-06</v>
+        <v>3.378920051728322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>249471.340408148</v>
+        <v>313336.9596059469</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.4516997079363</v>
+        <v>231.1388263271823</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.5337323905343</v>
+        <v>316.254339306044</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.1003375800107</v>
+        <v>286.0714690285219</v>
       </c>
       <c r="AD4" t="n">
-        <v>179451.6997079363</v>
+        <v>231138.8263271823</v>
       </c>
       <c r="AE4" t="n">
-        <v>245533.7323905343</v>
+        <v>316254.339306044</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.100612408263553e-06</v>
+        <v>3.570901873064433e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>222100.3375800107</v>
+        <v>286071.4690285219</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.2956087018184</v>
+        <v>223.2510891615671</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.847185322172</v>
+        <v>305.4619893336503</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.9565065827321</v>
+        <v>276.3091257903316</v>
       </c>
       <c r="AD2" t="n">
-        <v>175295.6087018184</v>
+        <v>223251.0891615671</v>
       </c>
       <c r="AE2" t="n">
-        <v>239847.185322172</v>
+        <v>305461.9893336503</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.16174088132074e-06</v>
+        <v>3.89813036325908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.21701388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>216956.5065827321</v>
+        <v>276309.1257903316</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.3572027834861</v>
+        <v>206.3979345892554</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.6713110749918</v>
+        <v>282.4027597391194</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.9925052461517</v>
+        <v>255.4506367044635</v>
       </c>
       <c r="AD3" t="n">
-        <v>158357.202783486</v>
+        <v>206397.9345892554</v>
       </c>
       <c r="AE3" t="n">
-        <v>216671.3110749918</v>
+        <v>282402.7597391194</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266254210949401e-06</v>
+        <v>4.086592628607866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.748263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>195992.5052461517</v>
+        <v>255450.6367044635</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.6686397086239</v>
+        <v>205.0082809963374</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.7832357636214</v>
+        <v>280.5013743861003</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.2390111574762</v>
+        <v>253.7307169009248</v>
       </c>
       <c r="AD2" t="n">
-        <v>149668.6397086239</v>
+        <v>205008.2809963374</v>
       </c>
       <c r="AE2" t="n">
-        <v>204783.2357636214</v>
+        <v>280501.3743861003</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309327204737103e-06</v>
+        <v>4.308466404369029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.965277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>185239.0111574762</v>
+        <v>253730.7169009248</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.1070379012149</v>
+        <v>197.8558997876572</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.4878038621444</v>
+        <v>270.7151708755998</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.4945818795805</v>
+        <v>244.8784949184405</v>
       </c>
       <c r="AD2" t="n">
-        <v>153107.0379012149</v>
+        <v>197855.8997876572</v>
       </c>
       <c r="AE2" t="n">
-        <v>209487.8038621444</v>
+        <v>270715.1708755998</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.312094393369153e-06</v>
+        <v>4.44624325925046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.29513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>189494.5818795805</v>
+        <v>244878.4949184405</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.6339477230324</v>
+        <v>211.2777332646068</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.8405010090898</v>
+        <v>289.0795155682557</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.9090567023259</v>
+        <v>261.4901723281548</v>
       </c>
       <c r="AD2" t="n">
-        <v>152633.9477230324</v>
+        <v>211277.7332646068</v>
       </c>
       <c r="AE2" t="n">
-        <v>208840.5010090898</v>
+        <v>289079.5155682557</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.151075839328427e-06</v>
+        <v>4.436807566398605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.88368055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>188909.0567023259</v>
+        <v>261490.1723281548</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.4346741737544</v>
+        <v>259.985893533245</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.9260049270098</v>
+        <v>355.7241693003139</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.4467511235467</v>
+        <v>321.7743538442984</v>
       </c>
       <c r="AD2" t="n">
-        <v>210434.6741737544</v>
+        <v>259985.893533245</v>
       </c>
       <c r="AE2" t="n">
-        <v>287926.0049270098</v>
+        <v>355724.1693003139</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.918595569432478e-06</v>
+        <v>3.37089673116513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>260446.7511235467</v>
+        <v>321774.3538442984</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.5286858130052</v>
+        <v>216.0798156639414</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.8518946563626</v>
+        <v>295.6499365599456</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.1060296225677</v>
+        <v>267.4335215620436</v>
       </c>
       <c r="AD3" t="n">
-        <v>166528.6858130051</v>
+        <v>216079.8156639414</v>
       </c>
       <c r="AE3" t="n">
-        <v>227851.8946563627</v>
+        <v>295649.9365599456</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199721729848096e-06</v>
+        <v>3.864824305213642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>206106.0296225677</v>
+        <v>267433.5215620436</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.6166379066216</v>
+        <v>319.0788271950976</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.4824492276198</v>
+        <v>436.5777281327012</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.8420189856657</v>
+        <v>394.9113625004053</v>
       </c>
       <c r="AD2" t="n">
-        <v>257616.6379066216</v>
+        <v>319078.8271950976</v>
       </c>
       <c r="AE2" t="n">
-        <v>352482.4492276198</v>
+        <v>436577.7281327012</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.651224182890907e-06</v>
+        <v>2.823409336364966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>318842.0189856657</v>
+        <v>394911.3625004053</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.9240685377939</v>
+        <v>246.1283510538505</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.7037100162728</v>
+        <v>336.7636683282204</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.2498822534057</v>
+        <v>304.6234164738523</v>
       </c>
       <c r="AD3" t="n">
-        <v>194924.0685377939</v>
+        <v>246128.3510538505</v>
       </c>
       <c r="AE3" t="n">
-        <v>266703.7100162728</v>
+        <v>336763.6683282204</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043307486109751e-06</v>
+        <v>3.493828090166634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>241249.8822534057</v>
+        <v>304623.4164738524</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.0365081083065</v>
+        <v>228.3260419703837</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.2291606931892</v>
+        <v>312.4057636577861</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.1111495674637</v>
+        <v>282.5901960386227</v>
       </c>
       <c r="AD4" t="n">
-        <v>177036.5081083066</v>
+        <v>228326.0419703837</v>
       </c>
       <c r="AE4" t="n">
-        <v>242229.1606931892</v>
+        <v>312405.7636577861</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.122450095145757e-06</v>
+        <v>3.629153131776265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.704861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>219111.1495674637</v>
+        <v>282590.1960386227</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.5999732434806</v>
+        <v>232.5327192683145</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.3176773806043</v>
+        <v>318.1615251223167</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.4319201008472</v>
+        <v>287.7966357072422</v>
       </c>
       <c r="AD2" t="n">
-        <v>167599.9732434806</v>
+        <v>232532.7192683145</v>
       </c>
       <c r="AE2" t="n">
-        <v>229317.6773806043</v>
+        <v>318161.5251223167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.908767229723307e-06</v>
+        <v>4.091367333276126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.86284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>207431.9201008471</v>
+        <v>287796.6357072422</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.4140097121432</v>
+        <v>199.3052295875396</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.5395721196112</v>
+        <v>272.698207847716</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.6368480437027</v>
+        <v>246.6722736251484</v>
       </c>
       <c r="AD2" t="n">
-        <v>152414.0097121432</v>
+        <v>199305.2295875396</v>
       </c>
       <c r="AE2" t="n">
-        <v>208539.5721196112</v>
+        <v>272698.207847716</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.300227139311801e-06</v>
+        <v>4.238013319597326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>188636.8480437027</v>
+        <v>246672.2736251484</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.4592670473484</v>
+        <v>199.3504869227447</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.6014952022515</v>
+        <v>272.7601309303564</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.6928612742454</v>
+        <v>246.7282868556912</v>
       </c>
       <c r="AD3" t="n">
-        <v>152459.2670473484</v>
+        <v>199350.4869227447</v>
       </c>
       <c r="AE3" t="n">
-        <v>208601.4952022515</v>
+        <v>272760.1309303563</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.305191451549488e-06</v>
+        <v>4.247159729978455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.835069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>188692.8612742454</v>
+        <v>246728.2868556912</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.284703134705</v>
+        <v>231.9388651937878</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.7782167792134</v>
+        <v>317.3489877785569</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.844295739316</v>
+        <v>287.0616457871673</v>
       </c>
       <c r="AD2" t="n">
-        <v>183284.703134705</v>
+        <v>231938.8651937878</v>
       </c>
       <c r="AE2" t="n">
-        <v>250778.2167792134</v>
+        <v>317348.9877785569</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.078936257065903e-06</v>
+        <v>3.713867906054771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.50347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>226844.295739316</v>
+        <v>287061.6457871672</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.292961176702</v>
+        <v>209.8617823812132</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.6881452251073</v>
+        <v>287.1421491022532</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.6259783826436</v>
+        <v>259.737705398556</v>
       </c>
       <c r="AD3" t="n">
-        <v>161292.961176702</v>
+        <v>209861.7823812132</v>
       </c>
       <c r="AE3" t="n">
-        <v>220688.1452251073</v>
+        <v>287142.1491022532</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.241693146133536e-06</v>
+        <v>4.004621210656181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>199625.9783826436</v>
+        <v>259737.705398556</v>
       </c>
     </row>
   </sheetData>
